--- a/xtt_demo/ZXXT_DEMO_060_FM_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_060_FM_R.XLSX
@@ -16,13 +16,60 @@
   </sheets>
   <definedNames>
     <definedName name="I_1">'Rows'!$I$4</definedName>
+    <definedName name="I_10">'Rows'!$I$13</definedName>
+    <definedName name="I_11">'Rows'!$I$14</definedName>
+    <definedName name="I_12">'Rows'!$I$15</definedName>
+    <definedName name="I_13">'Rows'!$I$16</definedName>
+    <definedName name="I_14">'Rows'!$I$17</definedName>
+    <definedName name="I_15">'Rows'!$I$18</definedName>
+    <definedName name="I_16">'Rows'!$I$19</definedName>
+    <definedName name="I_17">'Rows'!$I$20</definedName>
+    <definedName name="I_18">'Rows'!$I$21</definedName>
+    <definedName name="I_19">'Rows'!$I$22</definedName>
+    <definedName name="I_2">'Rows'!$I$5</definedName>
+    <definedName name="I_20">'Rows'!$I$23</definedName>
+    <definedName name="I_21">'Rows'!$I$24</definedName>
+    <definedName name="I_22">'Rows'!$I$25</definedName>
+    <definedName name="I_23">'Rows'!$I$26</definedName>
+    <definedName name="I_24">'Rows'!$I$27</definedName>
+    <definedName name="I_25">'Rows'!$I$28</definedName>
+    <definedName name="I_26">'Rows'!$I$29</definedName>
+    <definedName name="I_27">'Rows'!$I$30</definedName>
+    <definedName name="I_28">'Rows'!$I$31</definedName>
+    <definedName name="I_29">'Rows'!$I$32</definedName>
+    <definedName name="I_3">'Rows'!$I$6</definedName>
+    <definedName name="I_30">'Rows'!$I$33</definedName>
+    <definedName name="I_31">'Rows'!$I$34</definedName>
+    <definedName name="I_32">'Rows'!$I$35</definedName>
+    <definedName name="I_33">'Rows'!$I$36</definedName>
+    <definedName name="I_34">'Rows'!$I$37</definedName>
+    <definedName name="I_35">'Rows'!$I$38</definedName>
+    <definedName name="I_36">'Rows'!$I$39</definedName>
+    <definedName name="I_37">'Rows'!$I$40</definedName>
+    <definedName name="I_38">'Rows'!$I$41</definedName>
+    <definedName name="I_39">'Rows'!$I$42</definedName>
+    <definedName name="I_4">'Rows'!$I$7</definedName>
+    <definedName name="I_40">'Rows'!$I$43</definedName>
+    <definedName name="I_41">'Rows'!$I$44</definedName>
+    <definedName name="I_42">'Rows'!$I$45</definedName>
+    <definedName name="I_43">'Rows'!$I$46</definedName>
+    <definedName name="I_44">'Rows'!$I$47</definedName>
+    <definedName name="I_45">'Rows'!$I$48</definedName>
+    <definedName name="I_46">'Rows'!$I$49</definedName>
+    <definedName name="I_47">'Rows'!$I$50</definedName>
+    <definedName name="I_48">'Rows'!$I$51</definedName>
+    <definedName name="I_5">'Rows'!$I$8</definedName>
+    <definedName name="I_6">'Rows'!$I$9</definedName>
+    <definedName name="I_7">'Rows'!$I$10</definedName>
+    <definedName name="I_8">'Rows'!$I$11</definedName>
+    <definedName name="I_9">'Rows'!$I$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Convert R-T to tree</t>
   </si>
@@ -43,6 +90,147 @@
   </si>
   <si>
     <t>R:</t>
+  </si>
+  <si>
+    <t>R:\REPORT</t>
+  </si>
+  <si>
+    <t>R:\REPORT\_rels</t>
+  </si>
+  <si>
+    <t>R:\REPORT\docProps</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\drawings</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\drawings\_rels</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\media</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\_rels</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\docProps</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\docProps</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\drawings</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\drawings\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\media</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\gif</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\FormParameters</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\docProps</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\my</t>
+  </si>
+  <si>
+    <t>R:\my\_rels</t>
   </si>
   <si>
     <t>Raw path</t>
@@ -1055,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customHeight="1" ht="15.75">
@@ -1066,10 +1254,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>5</v>
@@ -1084,10 +1272,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15">
@@ -1099,7 +1287,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3">
-        <v>0.00</v>
+        <v>11248005.00</v>
       </c>
       <c r="E4" s="4" t="e">
         <f>B$4 &amp; C$4</f>
@@ -1108,14 +1296,1362 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s"/>
       <c r="I4" s="3" t="e">
-        <f>IF(G$4="X",SUM(I_),VALUE(D$4))</f>
+        <f>IF(G$4="X",SUM(I_2,I_4,I_16,I_25),VALUE(D$4))</f>
       </c>
       <c r="J4" s="3">
-        <v>0.00</v>
+        <v>11248005.00</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" ht="15">
+      <c r="A5" t="s"/>
+      <c r="B5" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="3">
+        <v>597144.00</v>
+      </c>
+      <c r="E5" s="4" t="e">
+        <f>B$5 &amp; C$5</f>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="e">
+        <f>IF(G$5="X",SUM(I_3),VALUE(D$5))</f>
+      </c>
+      <c r="J5" s="3">
+        <v>597144.00</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" ht="15">
+      <c r="A6" t="s"/>
+      <c r="B6" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3">
+        <v>597144.00</v>
+      </c>
+      <c r="E6" s="4" t="e">
+        <f>B$6 &amp; C$6</f>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s"/>
+      <c r="H6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="3" t="e">
+        <f>IF(G$6="X",SUM(I_),VALUE(D$6))</f>
+      </c>
+      <c r="J6" s="3">
+        <v>597144.00</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="15">
+      <c r="A7" t="s"/>
+      <c r="B7" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3625607.00</v>
+      </c>
+      <c r="E7" s="4" t="e">
+        <f>B$7 &amp; C$7</f>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3" t="e">
+        <f>IF(G$7="X",SUM(I_5,I_6,I_15),VALUE(D$7))</f>
+      </c>
+      <c r="J7" s="3">
+        <v>3625607.00</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" ht="15">
+      <c r="A8" t="s"/>
+      <c r="B8" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>502146.00</v>
+      </c>
+      <c r="E8" s="4" t="e">
+        <f>B$8 &amp; C$8</f>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s"/>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3" t="e">
+        <f>IF(G$8="X",SUM(I_),VALUE(D$8))</f>
+      </c>
+      <c r="J8" s="3">
+        <v>502146.00</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="15">
+      <c r="A9" t="s"/>
+      <c r="B9" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2663061.00</v>
+      </c>
+      <c r="E9" s="4" t="e">
+        <f>B$9 &amp; C$9</f>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3" t="e">
+        <f>IF(G$9="X",SUM(I_7,I_9,I_10,I_11,I_12,I_14),VALUE(D$9))</f>
+      </c>
+      <c r="J9" s="3">
+        <v>2663061.00</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="15">
+      <c r="A10" t="s"/>
+      <c r="B10" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>227675.00</v>
+      </c>
+      <c r="E10" s="4" t="e">
+        <f>B$10 &amp; C$10</f>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="e">
+        <f>IF(G$10="X",SUM(I_8),VALUE(D$10))</f>
+      </c>
+      <c r="J10" s="3">
+        <v>227675.00</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="15">
+      <c r="A11" t="s"/>
+      <c r="B11" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
+        <v>227675.00</v>
+      </c>
+      <c r="E11" s="4" t="e">
+        <f>B$11 &amp; C$11</f>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s"/>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3" t="e">
+        <f>IF(G$11="X",SUM(I_),VALUE(D$11))</f>
+      </c>
+      <c r="J11" s="3">
+        <v>227675.00</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="15">
+      <c r="A12" t="s"/>
+      <c r="B12" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>771720.00</v>
+      </c>
+      <c r="E12" s="4" t="e">
+        <f>B$12 &amp; C$12</f>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s"/>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3" t="e">
+        <f>IF(G$12="X",SUM(I_),VALUE(D$12))</f>
+      </c>
+      <c r="J12" s="3">
+        <v>771720.00</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="15">
+      <c r="A13" t="s"/>
+      <c r="B13" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3">
+        <v>303138.00</v>
+      </c>
+      <c r="E13" s="4" t="e">
+        <f>B$13 &amp; C$13</f>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s"/>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3" t="e">
+        <f>IF(G$13="X",SUM(I_),VALUE(D$13))</f>
+      </c>
+      <c r="J13" s="3">
+        <v>303138.00</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="15">
+      <c r="A14" t="s"/>
+      <c r="B14" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44522.00</v>
+      </c>
+      <c r="E14" s="4" t="e">
+        <f>B$14 &amp; C$14</f>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s"/>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="e">
+        <f>IF(G$14="X",SUM(I_),VALUE(D$14))</f>
+      </c>
+      <c r="J14" s="3">
+        <v>44522.00</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" ht="15">
+      <c r="A15" t="s"/>
+      <c r="B15" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <v>947679.00</v>
+      </c>
+      <c r="E15" s="4" t="e">
+        <f>B$15 &amp; C$15</f>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="e">
+        <f>IF(G$15="X",SUM(I_13),VALUE(D$15))</f>
+      </c>
+      <c r="J15" s="3">
+        <v>947679.00</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="15">
+      <c r="A16" t="s"/>
+      <c r="B16" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3">
+        <v>947679.00</v>
+      </c>
+      <c r="E16" s="4" t="e">
+        <f>B$16 &amp; C$16</f>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s"/>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="3" t="e">
+        <f>IF(G$16="X",SUM(I_),VALUE(D$16))</f>
+      </c>
+      <c r="J16" s="3">
+        <v>947679.00</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="15">
+      <c r="A17" t="s"/>
+      <c r="B17" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3">
+        <v>368327.00</v>
+      </c>
+      <c r="E17" s="4" t="e">
+        <f>B$17 &amp; C$17</f>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s"/>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3" t="e">
+        <f>IF(G$17="X",SUM(I_),VALUE(D$17))</f>
+      </c>
+      <c r="J17" s="3">
+        <v>368327.00</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="15">
+      <c r="A18" t="s"/>
+      <c r="B18" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3">
+        <v>460400.00</v>
+      </c>
+      <c r="E18" s="4" t="e">
+        <f>B$18 &amp; C$18</f>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s"/>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="3" t="e">
+        <f>IF(G$18="X",SUM(I_),VALUE(D$18))</f>
+      </c>
+      <c r="J18" s="3">
+        <v>460400.00</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="15">
+      <c r="A19" t="s"/>
+      <c r="B19" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2430242.00</v>
+      </c>
+      <c r="E19" s="4" t="e">
+        <f>B$19 &amp; C$19</f>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="3" t="e">
+        <f>IF(G$19="X",SUM(I_17,I_18,I_24),VALUE(D$19))</f>
+      </c>
+      <c r="J19" s="3">
+        <v>2430242.00</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="15">
+      <c r="A20" t="s"/>
+      <c r="B20" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3">
+        <v>552585.00</v>
+      </c>
+      <c r="E20" s="4" t="e">
+        <f>B$20 &amp; C$20</f>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s"/>
+      <c r="H20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="3" t="e">
+        <f>IF(G$20="X",SUM(I_),VALUE(D$20))</f>
+      </c>
+      <c r="J20" s="3">
+        <v>552585.00</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" ht="15">
+      <c r="A21" t="s"/>
+      <c r="B21" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1329976.00</v>
+      </c>
+      <c r="E21" s="4" t="e">
+        <f>B$21 &amp; C$21</f>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3" t="e">
+        <f>IF(G$21="X",SUM(I_19,I_20,I_21,I_23),VALUE(D$21))</f>
+      </c>
+      <c r="J21" s="3">
+        <v>1329976.00</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" ht="15">
+      <c r="A22" t="s"/>
+      <c r="B22" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3">
+        <v>215971.00</v>
+      </c>
+      <c r="E22" s="4" t="e">
+        <f>B$22 &amp; C$22</f>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s"/>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="3" t="e">
+        <f>IF(G$22="X",SUM(I_),VALUE(D$22))</f>
+      </c>
+      <c r="J22" s="3">
+        <v>215971.00</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" ht="15">
+      <c r="A23" t="s"/>
+      <c r="B23" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3">
+        <v>226094.00</v>
+      </c>
+      <c r="E23" s="4" t="e">
+        <f>B$23 &amp; C$23</f>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s"/>
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="3" t="e">
+        <f>IF(G$23="X",SUM(I_),VALUE(D$23))</f>
+      </c>
+      <c r="J23" s="3">
+        <v>226094.00</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="15">
+      <c r="A24" t="s"/>
+      <c r="B24" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3">
+        <v>249030.00</v>
+      </c>
+      <c r="E24" s="4" t="e">
+        <f>B$24 &amp; C$24</f>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="3" t="e">
+        <f>IF(G$24="X",SUM(I_22),VALUE(D$24))</f>
+      </c>
+      <c r="J24" s="3">
+        <v>249030.00</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" ht="15">
+      <c r="A25" t="s"/>
+      <c r="B25" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3">
+        <v>249030.00</v>
+      </c>
+      <c r="E25" s="4" t="e">
+        <f>B$25 &amp; C$25</f>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s"/>
+      <c r="H25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="3" t="e">
+        <f>IF(G$25="X",SUM(I_),VALUE(D$25))</f>
+      </c>
+      <c r="J25" s="3">
+        <v>249030.00</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" ht="15">
+      <c r="A26" t="s"/>
+      <c r="B26" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3">
+        <v>638881.00</v>
+      </c>
+      <c r="E26" s="4" t="e">
+        <f>B$26 &amp; C$26</f>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s"/>
+      <c r="H26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="3" t="e">
+        <f>IF(G$26="X",SUM(I_),VALUE(D$26))</f>
+      </c>
+      <c r="J26" s="3">
+        <v>638881.00</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" ht="15">
+      <c r="A27" t="s"/>
+      <c r="B27" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3">
+        <v>547681.00</v>
+      </c>
+      <c r="E27" s="4" t="e">
+        <f>B$27 &amp; C$27</f>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="s"/>
+      <c r="H27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="3" t="e">
+        <f>IF(G$27="X",SUM(I_),VALUE(D$27))</f>
+      </c>
+      <c r="J27" s="3">
+        <v>547681.00</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" ht="15">
+      <c r="A28" t="s"/>
+      <c r="B28" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4595012.00</v>
+      </c>
+      <c r="E28" s="4" t="e">
+        <f>B$28 &amp; C$28</f>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="3" t="e">
+        <f>IF(G$28="X",SUM(I_26,I_38,I_39),VALUE(D$28))</f>
+      </c>
+      <c r="J28" s="3">
+        <v>4595012.00</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" ht="15">
+      <c r="A29" t="s"/>
+      <c r="B29" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2233406.00</v>
+      </c>
+      <c r="E29" s="4" t="e">
+        <f>B$29 &amp; C$29</f>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="3" t="e">
+        <f>IF(G$29="X",SUM(I_27,I_28,I_37),VALUE(D$29))</f>
+      </c>
+      <c r="J29" s="3">
+        <v>2233406.00</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" ht="15">
+      <c r="A30" t="s"/>
+      <c r="B30" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="3">
+        <v>40618.00</v>
+      </c>
+      <c r="E30" s="4" t="e">
+        <f>B$30 &amp; C$30</f>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s"/>
+      <c r="H30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="3" t="e">
+        <f>IF(G$30="X",SUM(I_),VALUE(D$30))</f>
+      </c>
+      <c r="J30" s="3">
+        <v>40618.00</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" ht="15">
+      <c r="A31" t="s"/>
+      <c r="B31" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2073153.00</v>
+      </c>
+      <c r="E31" s="4" t="e">
+        <f>B$31 &amp; C$31</f>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="3" t="e">
+        <f>IF(G$31="X",SUM(I_29,I_31,I_32,I_33,I_34,I_36),VALUE(D$31))</f>
+      </c>
+      <c r="J31" s="3">
+        <v>2073153.00</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" ht="15">
+      <c r="A32" t="s"/>
+      <c r="B32" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="3">
+        <v>68966.00</v>
+      </c>
+      <c r="E32" s="4" t="e">
+        <f>B$32 &amp; C$32</f>
+      </c>
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="3" t="e">
+        <f>IF(G$32="X",SUM(I_30),VALUE(D$32))</f>
+      </c>
+      <c r="J32" s="3">
+        <v>68966.00</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" ht="15">
+      <c r="A33" t="s"/>
+      <c r="B33" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="3">
+        <v>68966.00</v>
+      </c>
+      <c r="E33" s="4" t="e">
+        <f>B$33 &amp; C$33</f>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="s"/>
+      <c r="H33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="3" t="e">
+        <f>IF(G$33="X",SUM(I_),VALUE(D$33))</f>
+      </c>
+      <c r="J33" s="3">
+        <v>68966.00</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" ht="15">
+      <c r="A34" t="s"/>
+      <c r="B34" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="3">
+        <v>51860.00</v>
+      </c>
+      <c r="E34" s="4" t="e">
+        <f>B$34 &amp; C$34</f>
+      </c>
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1" t="s"/>
+      <c r="H34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="3" t="e">
+        <f>IF(G$34="X",SUM(I_),VALUE(D$34))</f>
+      </c>
+      <c r="J34" s="3">
+        <v>51860.00</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" ht="15">
+      <c r="A35" t="s"/>
+      <c r="B35" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="3">
+        <v>545187.00</v>
+      </c>
+      <c r="E35" s="4" t="e">
+        <f>B$35 &amp; C$35</f>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1" t="s"/>
+      <c r="H35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="3" t="e">
+        <f>IF(G$35="X",SUM(I_),VALUE(D$35))</f>
+      </c>
+      <c r="J35" s="3">
+        <v>545187.00</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" ht="15">
+      <c r="A36" t="s"/>
+      <c r="B36" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="3">
+        <v>406185.00</v>
+      </c>
+      <c r="E36" s="4" t="e">
+        <f>B$36 &amp; C$36</f>
+      </c>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1" t="s"/>
+      <c r="H36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="3" t="e">
+        <f>IF(G$36="X",SUM(I_),VALUE(D$36))</f>
+      </c>
+      <c r="J36" s="3">
+        <v>406185.00</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" ht="15">
+      <c r="A37" t="s"/>
+      <c r="B37" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="3">
+        <v>457355.00</v>
+      </c>
+      <c r="E37" s="4" t="e">
+        <f>B$37 &amp; C$37</f>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="3" t="e">
+        <f>IF(G$37="X",SUM(I_35),VALUE(D$37))</f>
+      </c>
+      <c r="J37" s="3">
+        <v>457355.00</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" ht="15">
+      <c r="A38" t="s"/>
+      <c r="B38" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="3">
+        <v>457355.00</v>
+      </c>
+      <c r="E38" s="4" t="e">
+        <f>B$38 &amp; C$38</f>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1" t="s"/>
+      <c r="H38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="3" t="e">
+        <f>IF(G$38="X",SUM(I_),VALUE(D$38))</f>
+      </c>
+      <c r="J38" s="3">
+        <v>457355.00</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" ht="15">
+      <c r="A39" t="s"/>
+      <c r="B39" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="3">
+        <v>543600.00</v>
+      </c>
+      <c r="E39" s="4" t="e">
+        <f>B$39 &amp; C$39</f>
+      </c>
+      <c r="F39" s="1">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1" t="s"/>
+      <c r="H39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="3" t="e">
+        <f>IF(G$39="X",SUM(I_),VALUE(D$39))</f>
+      </c>
+      <c r="J39" s="3">
+        <v>543600.00</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" ht="15">
+      <c r="A40" t="s"/>
+      <c r="B40" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="3">
+        <v>119635.00</v>
+      </c>
+      <c r="E40" s="4" t="e">
+        <f>B$40 &amp; C$40</f>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s"/>
+      <c r="H40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="3" t="e">
+        <f>IF(G$40="X",SUM(I_),VALUE(D$40))</f>
+      </c>
+      <c r="J40" s="3">
+        <v>119635.00</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" ht="15">
+      <c r="A41" t="s"/>
+      <c r="B41" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="3">
+        <v>52246.00</v>
+      </c>
+      <c r="E41" s="4" t="e">
+        <f>B$41 &amp; C$41</f>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1" t="s"/>
+      <c r="H41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="3" t="e">
+        <f>IF(G$41="X",SUM(I_),VALUE(D$41))</f>
+      </c>
+      <c r="J41" s="3">
+        <v>52246.00</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" ht="15">
+      <c r="A42" t="s"/>
+      <c r="B42" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2309360.00</v>
+      </c>
+      <c r="E42" s="4" t="e">
+        <f>B$42 &amp; C$42</f>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="3" t="e">
+        <f>IF(G$42="X",SUM(I_40,I_41,I_42,I_48),VALUE(D$42))</f>
+      </c>
+      <c r="J42" s="3">
+        <v>2309360.00</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" ht="15">
+      <c r="A43" t="s"/>
+      <c r="B43" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="3">
+        <v>768695.00</v>
+      </c>
+      <c r="E43" s="4" t="e">
+        <f>B$43 &amp; C$43</f>
+      </c>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s"/>
+      <c r="H43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="3" t="e">
+        <f>IF(G$43="X",SUM(I_),VALUE(D$43))</f>
+      </c>
+      <c r="J43" s="3">
+        <v>768695.00</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" ht="15">
+      <c r="A44" t="s"/>
+      <c r="B44" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="3">
+        <v>272798.00</v>
+      </c>
+      <c r="E44" s="4" t="e">
+        <f>B$44 &amp; C$44</f>
+      </c>
+      <c r="F44" s="1">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1" t="s"/>
+      <c r="H44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="3" t="e">
+        <f>IF(G$44="X",SUM(I_),VALUE(D$44))</f>
+      </c>
+      <c r="J44" s="3">
+        <v>272798.00</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" ht="15">
+      <c r="A45" t="s"/>
+      <c r="B45" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1022341.00</v>
+      </c>
+      <c r="E45" s="4" t="e">
+        <f>B$45 &amp; C$45</f>
+      </c>
+      <c r="F45" s="1">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="3" t="e">
+        <f>IF(G$45="X",SUM(I_43,I_44,I_45,I_47),VALUE(D$45))</f>
+      </c>
+      <c r="J45" s="3">
+        <v>1022341.00</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" ht="15">
+      <c r="A46" t="s"/>
+      <c r="B46" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="3">
+        <v>97818.00</v>
+      </c>
+      <c r="E46" s="4" t="e">
+        <f>B$46 &amp; C$46</f>
+      </c>
+      <c r="F46" s="1">
+        <v>4</v>
+      </c>
+      <c r="G46" s="1" t="s"/>
+      <c r="H46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="3" t="e">
+        <f>IF(G$46="X",SUM(I_),VALUE(D$46))</f>
+      </c>
+      <c r="J46" s="3">
+        <v>97818.00</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" ht="15">
+      <c r="A47" t="s"/>
+      <c r="B47" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="3">
+        <v>29555.00</v>
+      </c>
+      <c r="E47" s="4" t="e">
+        <f>B$47 &amp; C$47</f>
+      </c>
+      <c r="F47" s="1">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1" t="s"/>
+      <c r="H47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="3" t="e">
+        <f>IF(G$47="X",SUM(I_),VALUE(D$47))</f>
+      </c>
+      <c r="J47" s="3">
+        <v>29555.00</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" ht="15">
+      <c r="A48" t="s"/>
+      <c r="B48" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="3">
+        <v>7112.00</v>
+      </c>
+      <c r="E48" s="4" t="e">
+        <f>B$48 &amp; C$48</f>
+      </c>
+      <c r="F48" s="1">
+        <v>4</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="3" t="e">
+        <f>IF(G$48="X",SUM(I_46),VALUE(D$48))</f>
+      </c>
+      <c r="J48" s="3">
+        <v>7112.00</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" ht="15">
+      <c r="A49" t="s"/>
+      <c r="B49" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="3">
+        <v>7112.00</v>
+      </c>
+      <c r="E49" s="4" t="e">
+        <f>B$49 &amp; C$49</f>
+      </c>
+      <c r="F49" s="1">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1" t="s"/>
+      <c r="H49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" s="3" t="e">
+        <f>IF(G$49="X",SUM(I_),VALUE(D$49))</f>
+      </c>
+      <c r="J49" s="3">
+        <v>7112.00</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" ht="15">
+      <c r="A50" t="s"/>
+      <c r="B50" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="3">
+        <v>887856.00</v>
+      </c>
+      <c r="E50" s="4" t="e">
+        <f>B$50 &amp; C$50</f>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1" t="s"/>
+      <c r="H50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="3" t="e">
+        <f>IF(G$50="X",SUM(I_),VALUE(D$50))</f>
+      </c>
+      <c r="J50" s="3">
+        <v>887856.00</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" ht="15">
+      <c r="A51" t="s"/>
+      <c r="B51" s="3" t="e">
+        <f>REPT("  ",INDIRECT("RC[4]",FALSE))</f>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="3">
+        <v>245526.00</v>
+      </c>
+      <c r="E51" s="4" t="e">
+        <f>B$51 &amp; C$51</f>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1" t="s"/>
+      <c r="H51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="3" t="e">
+        <f>IF(G$51="X",SUM(I_),VALUE(D$51))</f>
+      </c>
+      <c r="J51" s="3">
+        <v>245526.00</v>
       </c>
     </row>
   </sheetData>
